--- a/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
+++ b/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15315" windowHeight="7665"/>
+    <workbookView windowWidth="15555" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,11 +83,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +96,73 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,104 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -220,6 +190,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -228,13 +236,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -251,13 +252,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,43 +360,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,37 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,79 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,41 +446,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,16 +480,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +514,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,138 +564,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,10 +1019,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="6" max="6" width="12.4285714285714"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1058,7 +1063,7 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>105000</v>
       </c>
     </row>
@@ -1078,7 +1083,7 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>90000</v>
       </c>
     </row>
@@ -1098,7 +1103,7 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>120000</v>
       </c>
     </row>

--- a/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
+++ b/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" r:id="rId5" sheetId="2"/>
+    <sheet name="Sheet5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">FIrstname </t>
   </si>
@@ -35,6 +35,9 @@
     <t>Salary</t>
   </si>
   <si>
+    <t>Seniority Level</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>QA</t>
   </si>
   <si>
+    <t>Mid-Level</t>
+  </si>
+  <si>
     <t>Fred</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>ScrumMaster</t>
   </si>
   <si>
+    <t>Entry-Level</t>
+  </si>
+  <si>
     <t>Mike</t>
   </si>
   <si>
@@ -80,22 +89,7 @@
     <t>Developer</t>
   </si>
   <si>
-    <t>Seniority Level</t>
-  </si>
-  <si>
-    <t>Mid-Level</t>
-  </si>
-  <si>
-    <t>Entry-Level</t>
-  </si>
-  <si>
     <t>Senior-Level</t>
-  </si>
-  <si>
-    <t>Tju</t>
-  </si>
-  <si>
-    <t>SDET</t>
   </si>
 </sst>
 </file>
@@ -103,11 +97,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,12 +113,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,25 +142,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,54 +205,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +265,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,13 +325,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,157 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,9 +461,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -544,6 +529,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,7 +559,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,31 +577,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,94 +613,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,18 +1029,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="6" max="6" width="12.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,91 +1056,80 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
-        <v>21</v>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2">
         <v>105000</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>22</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
         <v>90000</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>120000</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>130000.0</v>
       </c>
     </row>
   </sheetData>
@@ -1156,13 +1139,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
+++ b/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">FIrstname </t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Developer</t>
+  </si>
+  <si>
+    <t>Seniority Level</t>
+  </si>
+  <si>
+    <t>Mid-Level</t>
+  </si>
+  <si>
+    <t>Entry-Level</t>
+  </si>
+  <si>
+    <t>Senior-Level</t>
   </si>
 </sst>
 </file>
@@ -84,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1016,7 +1028,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -1043,8 +1055,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1066,6 +1081,9 @@
       <c r="F2" s="2">
         <v>105000</v>
       </c>
+      <c r="G2" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -1086,25 +1104,31 @@
       <c r="F3" s="2">
         <v>90000</v>
       </c>
+      <c r="G3" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>120000</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
+++ b/Sellenium/SelleniumIntro/testData/EmployeeList.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t xml:space="preserve">FIrstname </t>
   </si>
@@ -89,6 +90,12 @@
   </si>
   <si>
     <t>Senior-Level</t>
+  </si>
+  <si>
+    <t>Tju</t>
+  </si>
+  <si>
+    <t>SDET</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1035,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
@@ -1131,8 +1138,31 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>130000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>